--- a/biology/Zoologie/Collocalia_uropygialis/Collocalia_uropygialis.xlsx
+++ b/biology/Zoologie/Collocalia_uropygialis/Collocalia_uropygialis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Collocalia uropygialis est une espèce d'oiseaux de la famille des Apodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Collocalia uropygialis est une espèce d'oiseaux de la famille des Apodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Nouvelle-Calédonie, au Vanuatu et aux Salomon aux îles Santa Cruz[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Nouvelle-Calédonie, au Vanuatu et aux Salomon aux îles Santa Cruz.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 7.3, 2017)[2], cet oiseau est représenté par deux sous-espèces :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 7.3, 2017), cet oiseau est représenté par deux sous-espèces :
 Collocalia uropygialis uropygialis Gray, 1866 ;
 Collocalia uropygialis albidior Salomonsen, 1983.</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce jusqu'en 2017 était considérée comme une sous-espèce de Collocalia esculenta[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce jusqu'en 2017 était considérée comme une sous-espèce de Collocalia esculenta.
 </t>
         </is>
       </c>
